--- a/data/trans_orig/P14B25-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P14B25-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D6507CA7-E340-4783-99BD-C9614E35BC0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{57EAB238-6296-4ED1-8319-A48332043CFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{90B4BA63-DBA2-4D7E-B970-015288FE5336}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{657966E3-3239-4E5C-9B70-71C7F5CE97A4}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="170">
   <si>
     <t>Población cuyos problemas mentales le limita en 2012 (Tasa respuesta: 0,69%)</t>
   </si>
@@ -123,37 +123,37 @@
     <t>84,23%</t>
   </si>
   <si>
-    <t>39,93%</t>
+    <t>20,24%</t>
   </si>
   <si>
     <t>83,68%</t>
   </si>
   <si>
-    <t>18,62%</t>
+    <t>31,05%</t>
   </si>
   <si>
     <t>83,94%</t>
   </si>
   <si>
-    <t>51,76%</t>
+    <t>48,53%</t>
   </si>
   <si>
     <t>15,77%</t>
   </si>
   <si>
-    <t>60,07%</t>
+    <t>79,76%</t>
   </si>
   <si>
     <t>16,32%</t>
   </si>
   <si>
-    <t>81,38%</t>
+    <t>68,95%</t>
   </si>
   <si>
     <t>16,06%</t>
   </si>
   <si>
-    <t>48,24%</t>
+    <t>51,47%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -162,7 +162,7 @@
     <t>89,24%</t>
   </si>
   <si>
-    <t>56,77%</t>
+    <t>44,43%</t>
   </si>
   <si>
     <t>43,07%</t>
@@ -171,13 +171,13 @@
     <t>91,32%</t>
   </si>
   <si>
-    <t>53,75%</t>
+    <t>51,27%</t>
   </si>
   <si>
     <t>10,76%</t>
   </si>
   <si>
-    <t>43,23%</t>
+    <t>55,57%</t>
   </si>
   <si>
     <t>56,93%</t>
@@ -186,7 +186,7 @@
     <t>8,68%</t>
   </si>
   <si>
-    <t>46,25%</t>
+    <t>48,73%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -195,15 +195,9 @@
     <t>72,39%</t>
   </si>
   <si>
-    <t>21,57%</t>
-  </si>
-  <si>
     <t>27,61%</t>
   </si>
   <si>
-    <t>78,43%</t>
-  </si>
-  <si>
     <t>65 y más</t>
   </si>
   <si>
@@ -240,55 +234,55 @@
     <t>80,79%</t>
   </si>
   <si>
-    <t>61,61%</t>
-  </si>
-  <si>
-    <t>91,91%</t>
+    <t>59,13%</t>
+  </si>
+  <si>
+    <t>91,38%</t>
   </si>
   <si>
     <t>85,43%</t>
   </si>
   <si>
-    <t>64,78%</t>
-  </si>
-  <si>
-    <t>95,62%</t>
+    <t>63,4%</t>
+  </si>
+  <si>
+    <t>95,55%</t>
   </si>
   <si>
     <t>82,7%</t>
   </si>
   <si>
-    <t>69,34%</t>
-  </si>
-  <si>
-    <t>91,0%</t>
+    <t>70,55%</t>
+  </si>
+  <si>
+    <t>91,64%</t>
   </si>
   <si>
     <t>19,21%</t>
   </si>
   <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>38,39%</t>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>40,87%</t>
   </si>
   <si>
     <t>14,57%</t>
   </si>
   <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>35,22%</t>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>36,6%</t>
   </si>
   <si>
     <t>17,3%</t>
   </si>
   <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>30,66%</t>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>29,45%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -964,7 +958,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6A22F44-005C-4DDD-8EAF-BC5EE2D6A154}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A48026B3-2CEF-43E0-8DDB-AFF16DCBF3B2}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1705,7 +1699,7 @@
         <v>51</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>13</v>
@@ -1733,7 +1727,7 @@
         <v>51</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>13</v>
@@ -1751,13 +1745,13 @@
         <v>1132</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -1779,13 +1773,13 @@
         <v>1132</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1839,7 +1833,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -1854,7 +1848,7 @@
         <v>13</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>17</v>
@@ -1866,10 +1860,10 @@
         <v>10686</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>13</v>
@@ -1881,10 +1875,10 @@
         <v>16063</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>13</v>
@@ -1908,7 +1902,7 @@
         <v>20</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -1917,13 +1911,13 @@
         <v>1096</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -1932,13 +1926,13 @@
         <v>1096</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2006,13 +2000,13 @@
         <v>24750</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>68</v>
       </c>
       <c r="H22" s="7">
         <v>16</v>
@@ -2021,13 +2015,13 @@
         <v>18329</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="M22" s="7">
         <v>36</v>
@@ -2036,13 +2030,13 @@
         <v>43080</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2057,13 +2051,13 @@
         <v>5885</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>77</v>
       </c>
       <c r="H23" s="7">
         <v>3</v>
@@ -2072,13 +2066,13 @@
         <v>3125</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="M23" s="7">
         <v>9</v>
@@ -2087,13 +2081,13 @@
         <v>9010</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2149,7 +2143,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -2171,7 +2165,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{491B518E-B81B-40EC-883F-D0BEEAF1704B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11F8F2AF-4416-4D33-9B31-42F213D21909}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2188,7 +2182,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2295,7 +2289,7 @@
         <v>1402</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
@@ -2310,7 +2304,7 @@
         <v>940</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>12</v>
@@ -2325,7 +2319,7 @@
         <v>2343</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>12</v>
@@ -2346,7 +2340,7 @@
         <v>935</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>12</v>
@@ -2361,7 +2355,7 @@
         <v>996</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>12</v>
@@ -2376,7 +2370,7 @@
         <v>1931</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>12</v>
@@ -2450,10 +2444,10 @@
         <v>3765</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>13</v>
@@ -2480,10 +2474,10 @@
         <v>4652</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>13</v>
@@ -2501,13 +2495,13 @@
         <v>2111</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -2531,13 +2525,13 @@
         <v>2111</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2608,7 +2602,7 @@
         <v>13</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>17</v>
@@ -2620,13 +2614,13 @@
         <v>3547</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M10" s="7">
         <v>8</v>
@@ -2635,13 +2629,13 @@
         <v>8368</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2662,7 +2656,7 @@
         <v>20</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="H11" s="7">
         <v>3</v>
@@ -2671,13 +2665,13 @@
         <v>2942</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="M11" s="7">
         <v>3</v>
@@ -2686,13 +2680,13 @@
         <v>2942</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2760,10 +2754,10 @@
         <v>7006</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>13</v>
@@ -2775,10 +2769,10 @@
         <v>3177</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>13</v>
@@ -2790,13 +2784,13 @@
         <v>10184</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2811,13 +2805,13 @@
         <v>2003</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="H14" s="7">
         <v>2</v>
@@ -2826,13 +2820,13 @@
         <v>2727</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="M14" s="7">
         <v>4</v>
@@ -2841,13 +2835,13 @@
         <v>4730</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2915,7 +2909,7 @@
         <v>2183</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>12</v>
@@ -2933,7 +2927,7 @@
         <v>13</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>17</v>
@@ -2945,10 +2939,10 @@
         <v>6329</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>13</v>
@@ -2966,7 +2960,7 @@
         <v>1194</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>12</v>
@@ -2987,7 +2981,7 @@
         <v>20</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="M17" s="7">
         <v>1</v>
@@ -2996,13 +2990,13 @@
         <v>1194</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3058,7 +3052,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3070,13 +3064,13 @@
         <v>3268</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="H19" s="7">
         <v>9</v>
@@ -3085,13 +3079,13 @@
         <v>11096</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="M19" s="7">
         <v>13</v>
@@ -3100,13 +3094,13 @@
         <v>14364</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3121,13 +3115,13 @@
         <v>2842</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="H20" s="7">
         <v>3</v>
@@ -3136,13 +3130,13 @@
         <v>3297</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>150</v>
       </c>
       <c r="M20" s="7">
         <v>6</v>
@@ -3151,13 +3145,13 @@
         <v>6139</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3225,13 +3219,13 @@
         <v>22447</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="H22" s="7">
         <v>20</v>
@@ -3240,13 +3234,13 @@
         <v>23793</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>159</v>
       </c>
       <c r="M22" s="7">
         <v>42</v>
@@ -3255,13 +3249,13 @@
         <v>46240</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3276,13 +3270,13 @@
         <v>9084</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>165</v>
       </c>
       <c r="H23" s="7">
         <v>9</v>
@@ -3291,13 +3285,13 @@
         <v>9963</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>168</v>
       </c>
       <c r="M23" s="7">
         <v>18</v>
@@ -3306,13 +3300,13 @@
         <v>19047</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3368,7 +3362,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P14B25-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P14B25-Edad-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{57EAB238-6296-4ED1-8319-A48332043CFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F7F1FA3E-4021-47B1-AE56-F1C7A8D041FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{657966E3-3239-4E5C-9B70-71C7F5CE97A4}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D0073C63-049C-47AD-9F5D-B07D5060F95C}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -123,37 +123,37 @@
     <t>84,23%</t>
   </si>
   <si>
-    <t>20,24%</t>
+    <t>40,12%</t>
   </si>
   <si>
     <t>83,68%</t>
   </si>
   <si>
-    <t>31,05%</t>
+    <t>29,93%</t>
   </si>
   <si>
     <t>83,94%</t>
   </si>
   <si>
-    <t>48,53%</t>
+    <t>49,57%</t>
   </si>
   <si>
     <t>15,77%</t>
   </si>
   <si>
-    <t>79,76%</t>
+    <t>59,88%</t>
   </si>
   <si>
     <t>16,32%</t>
   </si>
   <si>
-    <t>68,95%</t>
+    <t>70,07%</t>
   </si>
   <si>
     <t>16,06%</t>
   </si>
   <si>
-    <t>51,47%</t>
+    <t>50,43%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -162,7 +162,7 @@
     <t>89,24%</t>
   </si>
   <si>
-    <t>44,43%</t>
+    <t>44,23%</t>
   </si>
   <si>
     <t>43,07%</t>
@@ -171,13 +171,13 @@
     <t>91,32%</t>
   </si>
   <si>
-    <t>51,27%</t>
+    <t>56,0%</t>
   </si>
   <si>
     <t>10,76%</t>
   </si>
   <si>
-    <t>55,57%</t>
+    <t>55,77%</t>
   </si>
   <si>
     <t>56,93%</t>
@@ -186,7 +186,7 @@
     <t>8,68%</t>
   </si>
   <si>
-    <t>48,73%</t>
+    <t>44,0%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -207,13 +207,13 @@
     <t>90,7%</t>
   </si>
   <si>
-    <t>58,49%</t>
+    <t>59,12%</t>
   </si>
   <si>
     <t>93,62%</t>
   </si>
   <si>
-    <t>72,73%</t>
+    <t>65,34%</t>
   </si>
   <si>
     <t>36,25%</t>
@@ -222,73 +222,73 @@
     <t>9,3%</t>
   </si>
   <si>
-    <t>41,51%</t>
+    <t>40,88%</t>
   </si>
   <si>
     <t>6,38%</t>
   </si>
   <si>
-    <t>27,27%</t>
+    <t>34,66%</t>
   </si>
   <si>
     <t>80,79%</t>
   </si>
   <si>
-    <t>59,13%</t>
-  </si>
-  <si>
-    <t>91,38%</t>
+    <t>59,04%</t>
+  </si>
+  <si>
+    <t>91,48%</t>
   </si>
   <si>
     <t>85,43%</t>
   </si>
   <si>
-    <t>63,4%</t>
-  </si>
-  <si>
-    <t>95,55%</t>
+    <t>64,49%</t>
+  </si>
+  <si>
+    <t>95,6%</t>
   </si>
   <si>
     <t>82,7%</t>
   </si>
   <si>
-    <t>70,55%</t>
-  </si>
-  <si>
-    <t>91,64%</t>
+    <t>69,27%</t>
+  </si>
+  <si>
+    <t>91,36%</t>
   </si>
   <si>
     <t>19,21%</t>
   </si>
   <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>40,87%</t>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>40,96%</t>
   </si>
   <si>
     <t>14,57%</t>
   </si>
   <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>36,6%</t>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>35,51%</t>
   </si>
   <si>
     <t>17,3%</t>
   </si>
   <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>29,45%</t>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>30,73%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población cuyos problemas mentales le limita en 2015 (Tasa respuesta: 0,91%)</t>
+    <t>Población cuyos problemas mentales le limita en 2016 (Tasa respuesta: 0,91%)</t>
   </si>
   <si>
     <t>60,01%</t>
@@ -318,7 +318,7 @@
     <t>68,79%</t>
   </si>
   <si>
-    <t>29,59%</t>
+    <t>22,22%</t>
   </si>
   <si>
     <t>35,92%</t>
@@ -330,7 +330,7 @@
     <t>31,21%</t>
   </si>
   <si>
-    <t>70,41%</t>
+    <t>77,78%</t>
   </si>
   <si>
     <t>69,43%</t>
@@ -342,16 +342,16 @@
     <t>16,67%</t>
   </si>
   <si>
-    <t>86,86%</t>
+    <t>86,9%</t>
   </si>
   <si>
     <t>73,99%</t>
   </si>
   <si>
-    <t>44,82%</t>
-  </si>
-  <si>
-    <t>91,92%</t>
+    <t>45,03%</t>
+  </si>
+  <si>
+    <t>92,01%</t>
   </si>
   <si>
     <t>30,57%</t>
@@ -360,7 +360,7 @@
     <t>45,34%</t>
   </si>
   <si>
-    <t>13,14%</t>
+    <t>13,1%</t>
   </si>
   <si>
     <t>83,33%</t>
@@ -369,52 +369,52 @@
     <t>26,01%</t>
   </si>
   <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>55,18%</t>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>54,97%</t>
   </si>
   <si>
     <t>77,77%</t>
   </si>
   <si>
-    <t>43,73%</t>
+    <t>44,15%</t>
   </si>
   <si>
     <t>53,81%</t>
   </si>
   <si>
-    <t>14,31%</t>
+    <t>13,44%</t>
   </si>
   <si>
     <t>68,28%</t>
   </si>
   <si>
-    <t>37,24%</t>
-  </si>
-  <si>
-    <t>92,86%</t>
+    <t>36,86%</t>
+  </si>
+  <si>
+    <t>92,77%</t>
   </si>
   <si>
     <t>22,23%</t>
   </si>
   <si>
-    <t>56,27%</t>
+    <t>55,85%</t>
   </si>
   <si>
     <t>46,19%</t>
   </si>
   <si>
-    <t>85,69%</t>
+    <t>86,56%</t>
   </si>
   <si>
     <t>31,72%</t>
   </si>
   <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>62,76%</t>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>63,14%</t>
   </si>
   <si>
     <t>64,64%</t>
@@ -426,7 +426,7 @@
     <t>84,13%</t>
   </si>
   <si>
-    <t>31,77%</t>
+    <t>31,69%</t>
   </si>
   <si>
     <t>35,36%</t>
@@ -438,115 +438,115 @@
     <t>15,87%</t>
   </si>
   <si>
-    <t>68,23%</t>
+    <t>68,31%</t>
   </si>
   <si>
     <t>53,49%</t>
   </si>
   <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>85,66%</t>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>85,32%</t>
   </si>
   <si>
     <t>77,09%</t>
   </si>
   <si>
-    <t>45,63%</t>
-  </si>
-  <si>
-    <t>93,4%</t>
+    <t>43,13%</t>
+  </si>
+  <si>
+    <t>93,32%</t>
   </si>
   <si>
     <t>70,06%</t>
   </si>
   <si>
-    <t>43,94%</t>
-  </si>
-  <si>
-    <t>87,92%</t>
+    <t>44,95%</t>
+  </si>
+  <si>
+    <t>88,0%</t>
   </si>
   <si>
     <t>46,51%</t>
   </si>
   <si>
-    <t>14,34%</t>
-  </si>
-  <si>
-    <t>86,23%</t>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>86,48%</t>
   </si>
   <si>
     <t>22,91%</t>
   </si>
   <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>54,37%</t>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>56,87%</t>
   </si>
   <si>
     <t>29,94%</t>
   </si>
   <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>56,06%</t>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>55,05%</t>
   </si>
   <si>
     <t>71,19%</t>
   </si>
   <si>
-    <t>54,39%</t>
-  </si>
-  <si>
-    <t>86,5%</t>
+    <t>51,66%</t>
+  </si>
+  <si>
+    <t>84,44%</t>
   </si>
   <si>
     <t>70,49%</t>
   </si>
   <si>
-    <t>52,5%</t>
-  </si>
-  <si>
-    <t>84,33%</t>
+    <t>50,51%</t>
+  </si>
+  <si>
+    <t>84,08%</t>
   </si>
   <si>
     <t>70,83%</t>
   </si>
   <si>
-    <t>56,96%</t>
-  </si>
-  <si>
-    <t>80,95%</t>
+    <t>57,43%</t>
+  </si>
+  <si>
+    <t>81,24%</t>
   </si>
   <si>
     <t>28,81%</t>
   </si>
   <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>45,61%</t>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>48,34%</t>
   </si>
   <si>
     <t>29,51%</t>
   </si>
   <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>47,5%</t>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>49,49%</t>
   </si>
   <si>
     <t>29,17%</t>
   </si>
   <si>
-    <t>19,05%</t>
-  </si>
-  <si>
-    <t>43,04%</t>
+    <t>18,76%</t>
+  </si>
+  <si>
+    <t>42,57%</t>
   </si>
 </sst>
 </file>
@@ -958,7 +958,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A48026B3-2CEF-43E0-8DDB-AFF16DCBF3B2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5845D4C3-6714-4E82-B8C7-28254648F79E}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2165,7 +2165,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11F8F2AF-4416-4D33-9B31-42F213D21909}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51134F41-070E-4DA7-AFA8-0ED70DF5FFF5}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
